--- a/DSA_SHEET.xlsx
+++ b/DSA_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practise\Python\Competitive Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD13F1-72DA-4E25-8B4D-0F54D1ABB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D358F9-0850-4D8F-8930-5088FEB4D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
